--- a/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_rf_st.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_rf_st.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>108.5021018981934</v>
+        <v>98.56672620773315</v>
       </c>
       <c r="C2">
-        <v>52.43145219865666</v>
+        <v>35.16953710013657</v>
       </c>
       <c r="D2">
-        <v>3.430524492263794</v>
+        <v>2.343661212921142</v>
       </c>
       <c r="E2">
-        <v>3.366517161105031</v>
+        <v>3.271493805596727</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -585,28 +585,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.8185328185328186</v>
+        <v>0.8070866141732284</v>
       </c>
       <c r="K2">
-        <v>0.8185328185328186</v>
+        <v>0.8779527559055118</v>
       </c>
       <c r="L2">
-        <v>0.8294573643410853</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="M2">
-        <v>0.7945736434108527</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="N2">
-        <v>0.8372093023255814</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="O2">
-        <v>0.8196611894286313</v>
+        <v>0.8291338582677167</v>
       </c>
       <c r="P2">
-        <v>0.01439328118332088</v>
+        <v>0.03055686285343662</v>
       </c>
       <c r="Q2">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>258.1894637107849</v>
+        <v>263.7594539642334</v>
       </c>
       <c r="C3">
-        <v>104.1627844492875</v>
+        <v>83.27369750436185</v>
       </c>
       <c r="D3">
-        <v>3.857272291183472</v>
+        <v>3.791012334823608</v>
       </c>
       <c r="E3">
-        <v>2.3125559434284</v>
+        <v>0.875664504757413</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -638,28 +638,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.8262548262548263</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="K3">
-        <v>0.8185328185328186</v>
+        <v>0.8740157480314961</v>
       </c>
       <c r="L3">
-        <v>0.8294573643410853</v>
+        <v>0.8188976377952756</v>
       </c>
       <c r="M3">
-        <v>0.7868217054263565</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="N3">
-        <v>0.8410852713178295</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="O3">
-        <v>0.8204303971745832</v>
+        <v>0.8299212598425199</v>
       </c>
       <c r="P3">
-        <v>0.01830398263732914</v>
+        <v>0.02843381115790203</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>409.9517478466034</v>
+        <v>383.6270547389984</v>
       </c>
       <c r="C4">
-        <v>161.1984281228498</v>
+        <v>74.7510026692035</v>
       </c>
       <c r="D4">
-        <v>7.651335668563843</v>
+        <v>6.284858417510987</v>
       </c>
       <c r="E4">
-        <v>2.691391725468398</v>
+        <v>2.963922677729291</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -691,28 +691,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.8223938223938224</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="K4">
-        <v>0.8146718146718147</v>
+        <v>0.8740157480314961</v>
       </c>
       <c r="L4">
-        <v>0.8333333333333334</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="M4">
-        <v>0.7790697674418605</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="N4">
-        <v>0.8410852713178295</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O4">
-        <v>0.8181108018317321</v>
+        <v>0.8275590551181102</v>
       </c>
       <c r="P4">
-        <v>0.02151243815813245</v>
+        <v>0.02651568226847674</v>
       </c>
       <c r="Q4">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>258.011827993393</v>
+        <v>226.76441655159</v>
       </c>
       <c r="C5">
-        <v>5.237475804272325</v>
+        <v>46.40458208691889</v>
       </c>
       <c r="D5">
-        <v>6.7326988697052</v>
+        <v>6.46511754989624</v>
       </c>
       <c r="E5">
-        <v>0.6397686302913939</v>
+        <v>2.389573488038093</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -744,25 +744,25 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.8108108108108109</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="K5">
-        <v>0.8223938223938224</v>
+        <v>0.8700787401574803</v>
       </c>
       <c r="L5">
-        <v>0.8333333333333334</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M5">
-        <v>0.7945736434108527</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="N5">
-        <v>0.8372093023255814</v>
+        <v>0.7834645669291339</v>
       </c>
       <c r="O5">
-        <v>0.8196641824548803</v>
+        <v>0.8244094488188976</v>
       </c>
       <c r="P5">
-        <v>0.01555663967699543</v>
+        <v>0.03045524347372237</v>
       </c>
       <c r="Q5">
         <v>25</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>513.3653536319732</v>
+        <v>496.0790628910065</v>
       </c>
       <c r="C6">
-        <v>4.910560148521496</v>
+        <v>5.515348762315469</v>
       </c>
       <c r="D6">
-        <v>7.676940107345581</v>
+        <v>6.871644353866577</v>
       </c>
       <c r="E6">
-        <v>0.6311977061829974</v>
+        <v>1.565901984038922</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -797,28 +797,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.833976833976834</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="K6">
-        <v>0.8108108108108109</v>
+        <v>0.8740157480314961</v>
       </c>
       <c r="L6">
-        <v>0.8410852713178295</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="M6">
-        <v>0.8023255813953488</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="N6">
-        <v>0.8410852713178295</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O6">
-        <v>0.8258567537637305</v>
+        <v>0.8299212598425196</v>
       </c>
       <c r="P6">
-        <v>0.01618547292377482</v>
+        <v>0.02960881208970575</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1025.490283536911</v>
+        <v>984.3477579593658</v>
       </c>
       <c r="C7">
-        <v>12.00122609881206</v>
+        <v>17.66269443622061</v>
       </c>
       <c r="D7">
-        <v>8.365231037139893</v>
+        <v>9.314057779312133</v>
       </c>
       <c r="E7">
-        <v>0.7757847902644164</v>
+        <v>0.1793514416371976</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -850,25 +850,25 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.8301158301158301</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="K7">
-        <v>0.806949806949807</v>
+        <v>0.8858267716535433</v>
       </c>
       <c r="L7">
-        <v>0.8333333333333334</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M7">
-        <v>0.7984496124031008</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="N7">
-        <v>0.8410852713178295</v>
+        <v>0.7834645669291339</v>
       </c>
       <c r="O7">
-        <v>0.8219867708239802</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="P7">
-        <v>0.01636879296677308</v>
+        <v>0.03485975373413959</v>
       </c>
       <c r="Q7">
         <v>22</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>351.347484588623</v>
+        <v>338.24952044487</v>
       </c>
       <c r="C8">
-        <v>3.351717811677021</v>
+        <v>9.321496452381313</v>
       </c>
       <c r="D8">
-        <v>7.344130039215088</v>
+        <v>7.384015941619873</v>
       </c>
       <c r="E8">
-        <v>0.8557850451339473</v>
+        <v>1.206556816641357</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -903,28 +903,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.8378378378378378</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="K8">
-        <v>0.806949806949807</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="L8">
-        <v>0.8255813953488372</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="M8">
-        <v>0.8023255813953488</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N8">
-        <v>0.8372093023255814</v>
+        <v>0.7716535433070866</v>
       </c>
       <c r="O8">
-        <v>0.8219807847714824</v>
+        <v>0.8196850393700787</v>
       </c>
       <c r="P8">
-        <v>0.01489010133885827</v>
+        <v>0.03713331062220975</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>684.5399193286896</v>
+        <v>657.2458771705627</v>
       </c>
       <c r="C9">
-        <v>3.869499017164182</v>
+        <v>11.15863881260069</v>
       </c>
       <c r="D9">
-        <v>7.742189311981202</v>
+        <v>8.523486471176147</v>
       </c>
       <c r="E9">
-        <v>0.8957801860640131</v>
+        <v>0.6567231498157824</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -956,28 +956,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.8301158301158301</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="K9">
-        <v>0.803088803088803</v>
+        <v>0.8700787401574803</v>
       </c>
       <c r="L9">
-        <v>0.8372093023255814</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="M9">
-        <v>0.8062015503875969</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="N9">
-        <v>0.8449612403100775</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="O9">
-        <v>0.8243153452455779</v>
+        <v>0.8204724409448818</v>
       </c>
       <c r="P9">
-        <v>0.01676203086153755</v>
+        <v>0.03145666827628061</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1350.883069992065</v>
+        <v>1292.855770254135</v>
       </c>
       <c r="C10">
-        <v>14.15793366602717</v>
+        <v>22.75043457496014</v>
       </c>
       <c r="D10">
-        <v>8.544156169891357</v>
+        <v>8.966817712783813</v>
       </c>
       <c r="E10">
-        <v>1.47082715709597</v>
+        <v>0.3804006863739879</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1009,28 +1009,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.8301158301158301</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="K10">
-        <v>0.806949806949807</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="L10">
-        <v>0.8410852713178295</v>
+        <v>0.8188976377952756</v>
       </c>
       <c r="M10">
-        <v>0.8023255813953488</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="N10">
-        <v>0.8488372093023255</v>
+        <v>0.7874015748031497</v>
       </c>
       <c r="O10">
-        <v>0.8258627398162283</v>
+        <v>0.8267716535433072</v>
       </c>
       <c r="P10">
-        <v>0.01838117159878966</v>
+        <v>0.03404999733927504</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>227.2835369586945</v>
+        <v>216.1074284076691</v>
       </c>
       <c r="C11">
-        <v>4.459395429843839</v>
+        <v>6.985787600138399</v>
       </c>
       <c r="D11">
-        <v>7.760435962677002</v>
+        <v>8.22626748085022</v>
       </c>
       <c r="E11">
-        <v>0.6245537288383519</v>
+        <v>0.5228522399290424</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1062,28 +1062,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.833976833976834</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="K11">
-        <v>0.806949806949807</v>
+        <v>0.8779527559055118</v>
       </c>
       <c r="L11">
-        <v>0.8372093023255814</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M11">
-        <v>0.8062015503875969</v>
+        <v>0.8582677165354331</v>
       </c>
       <c r="N11">
-        <v>0.8488372093023255</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="O11">
-        <v>0.826634940588429</v>
+        <v>0.836220472440945</v>
       </c>
       <c r="P11">
-        <v>0.01710958317545343</v>
+        <v>0.02823688358589151</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>433.8004534244537</v>
+        <v>419.1637489795685</v>
       </c>
       <c r="C12">
-        <v>7.814847831503761</v>
+        <v>15.35270875372688</v>
       </c>
       <c r="D12">
-        <v>7.517876100540161</v>
+        <v>8.641271734237671</v>
       </c>
       <c r="E12">
-        <v>1.773420945477061</v>
+        <v>0.4409870719516196</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1115,28 +1115,28 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.833976833976834</v>
+        <v>0.8070866141732284</v>
       </c>
       <c r="K12">
-        <v>0.8108108108108109</v>
+        <v>0.8779527559055118</v>
       </c>
       <c r="L12">
-        <v>0.8449612403100775</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="M12">
-        <v>0.7984496124031008</v>
+        <v>0.8582677165354331</v>
       </c>
       <c r="N12">
-        <v>0.8410852713178295</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O12">
-        <v>0.8258567537637305</v>
+        <v>0.8354330708661418</v>
       </c>
       <c r="P12">
-        <v>0.01811273945413196</v>
+        <v>0.02981747437600234</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>853.8029569625854</v>
+        <v>812.0783504962922</v>
       </c>
       <c r="C13">
-        <v>13.36238868584937</v>
+        <v>25.08823427041529</v>
       </c>
       <c r="D13">
-        <v>8.413763570785523</v>
+        <v>8.486230230331421</v>
       </c>
       <c r="E13">
-        <v>0.7859042649961331</v>
+        <v>0.6838105696358212</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1168,28 +1168,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.833976833976834</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="K13">
-        <v>0.8185328185328186</v>
+        <v>0.8858267716535433</v>
       </c>
       <c r="L13">
-        <v>0.8488372093023255</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M13">
-        <v>0.7984496124031008</v>
+        <v>0.8543307086614174</v>
       </c>
       <c r="N13">
-        <v>0.8488372093023255</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O13">
-        <v>0.829726736703481</v>
+        <v>0.8370078740157482</v>
       </c>
       <c r="P13">
-        <v>0.01924601756856863</v>
+        <v>0.03045524347372238</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>325.5633114337921</v>
+        <v>313.4771307468415</v>
       </c>
       <c r="C14">
-        <v>7.933485137163387</v>
+        <v>11.77975318005017</v>
       </c>
       <c r="D14">
-        <v>8.520716142654418</v>
+        <v>8.59086995124817</v>
       </c>
       <c r="E14">
-        <v>0.2288095569369337</v>
+        <v>0.2399577745274234</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1221,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8185328185328186</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="K14">
-        <v>0.8378378378378378</v>
+        <v>0.8937007874015748</v>
       </c>
       <c r="L14">
-        <v>0.8333333333333334</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="M14">
-        <v>0.8062015503875969</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="N14">
-        <v>0.8488372093023255</v>
+        <v>0.7755905511811023</v>
       </c>
       <c r="O14">
-        <v>0.8289485498787824</v>
+        <v>0.8299212598425196</v>
       </c>
       <c r="P14">
-        <v>0.01496474513883408</v>
+        <v>0.03860677377049217</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>631.4841634750367</v>
+        <v>607.7705328941345</v>
       </c>
       <c r="C15">
-        <v>6.399891744724402</v>
+        <v>20.05709116896596</v>
       </c>
       <c r="D15">
-        <v>8.165433835983276</v>
+        <v>9.006316137313842</v>
       </c>
       <c r="E15">
-        <v>0.4217578735883837</v>
+        <v>0.2552004507639529</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1274,28 +1274,28 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.833976833976834</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="K15">
-        <v>0.8108108108108109</v>
+        <v>0.8858267716535433</v>
       </c>
       <c r="L15">
-        <v>0.8333333333333334</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="M15">
-        <v>0.810077519379845</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="N15">
-        <v>0.8527131782945736</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O15">
-        <v>0.8281823351590794</v>
+        <v>0.8338582677165356</v>
       </c>
       <c r="P15">
-        <v>0.01607125058146287</v>
+        <v>0.03480635607133911</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1262.370862913132</v>
+        <v>1213.847106170654</v>
       </c>
       <c r="C16">
-        <v>14.95016922707785</v>
+        <v>41.31323793190631</v>
       </c>
       <c r="D16">
-        <v>9.000959110260009</v>
+        <v>9.076051664352416</v>
       </c>
       <c r="E16">
-        <v>0.6653489869563916</v>
+        <v>0.5554654276588931</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1327,28 +1327,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8416988416988417</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="K16">
-        <v>0.8223938223938224</v>
+        <v>0.8700787401574803</v>
       </c>
       <c r="L16">
-        <v>0.8410852713178295</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M16">
-        <v>0.8023255813953488</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="N16">
-        <v>0.8527131782945736</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O16">
-        <v>0.8320433390200833</v>
+        <v>0.8275590551181103</v>
       </c>
       <c r="P16">
-        <v>0.01776786884605325</v>
+        <v>0.02929303187045397</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>429.2035161972046</v>
+        <v>416.2957895278931</v>
       </c>
       <c r="C17">
-        <v>7.206960889757383</v>
+        <v>18.03635993248815</v>
       </c>
       <c r="D17">
-        <v>8.140252017974854</v>
+        <v>8.28761191368103</v>
       </c>
       <c r="E17">
-        <v>0.4082793208184393</v>
+        <v>0.3575047842547898</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1380,28 +1380,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.833976833976834</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K17">
-        <v>0.806949806949807</v>
+        <v>0.8700787401574803</v>
       </c>
       <c r="L17">
-        <v>0.8527131782945736</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M17">
-        <v>0.8217054263565892</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="N17">
-        <v>0.8449612403100775</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O17">
-        <v>0.8320612971775763</v>
+        <v>0.8259842519685039</v>
       </c>
       <c r="P17">
-        <v>0.01633651743574493</v>
+        <v>0.02960881208970575</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>845.3825869560242</v>
+        <v>810.877563905716</v>
       </c>
       <c r="C18">
-        <v>10.108909702955</v>
+        <v>26.02666588698364</v>
       </c>
       <c r="D18">
-        <v>9.118201160430909</v>
+        <v>8.999551963806152</v>
       </c>
       <c r="E18">
-        <v>0.3242675977724909</v>
+        <v>0.189436638292607</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1433,28 +1433,28 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8223938223938224</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K18">
-        <v>0.8146718146718147</v>
+        <v>0.8858267716535433</v>
       </c>
       <c r="L18">
-        <v>0.8527131782945736</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="M18">
-        <v>0.8372093023255814</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="N18">
-        <v>0.8488372093023255</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O18">
-        <v>0.8351650653976236</v>
+        <v>0.8299212598425196</v>
       </c>
       <c r="P18">
-        <v>0.0147113606643683</v>
+        <v>0.0346277691768441</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1675.708807897568</v>
+        <v>1598.306486654282</v>
       </c>
       <c r="C19">
-        <v>18.93895083891585</v>
+        <v>50.9400130183382</v>
       </c>
       <c r="D19">
-        <v>9.348848724365235</v>
+        <v>9.02619161605835</v>
       </c>
       <c r="E19">
-        <v>0.7454274175082858</v>
+        <v>0.4643704402363696</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1486,28 +1486,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8378378378378378</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K19">
-        <v>0.8146718146718147</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="L19">
-        <v>0.8643410852713178</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M19">
-        <v>0.8333333333333334</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="N19">
-        <v>0.8565891472868217</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O19">
-        <v>0.8413546436802252</v>
+        <v>0.8307086614173229</v>
       </c>
       <c r="P19">
-        <v>0.01760198457030564</v>
+        <v>0.0319844031678581</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>227.1692203044891</v>
+        <v>216.8051773548126</v>
       </c>
       <c r="C20">
-        <v>3.611533228598721</v>
+        <v>7.167024441901958</v>
       </c>
       <c r="D20">
-        <v>8.862089920043946</v>
+        <v>8.745682525634766</v>
       </c>
       <c r="E20">
-        <v>0.1118177134877391</v>
+        <v>0.09905208275498219</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1539,28 +1539,28 @@
         <v>34</v>
       </c>
       <c r="J20">
-        <v>0.8301158301158301</v>
+        <v>0.8070866141732284</v>
       </c>
       <c r="K20">
-        <v>0.8108108108108109</v>
+        <v>0.8700787401574803</v>
       </c>
       <c r="L20">
-        <v>0.8294573643410853</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M20">
-        <v>0.8023255813953488</v>
+        <v>0.8582677165354331</v>
       </c>
       <c r="N20">
-        <v>0.8449612403100775</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="O20">
-        <v>0.8235341653946305</v>
+        <v>0.8354330708661418</v>
       </c>
       <c r="P20">
-        <v>0.01516054037832382</v>
+        <v>0.02507351705211128</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>446.4909966468811</v>
+        <v>423.5545663833618</v>
       </c>
       <c r="C21">
-        <v>13.10373837202751</v>
+        <v>14.83020136167292</v>
       </c>
       <c r="D21">
-        <v>8.832178926467895</v>
+        <v>8.770794916152955</v>
       </c>
       <c r="E21">
-        <v>0.233023345894623</v>
+        <v>0.6575785782308013</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1592,28 +1592,28 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>0.833976833976834</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="K21">
-        <v>0.8108108108108109</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="L21">
-        <v>0.8410852713178295</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="M21">
-        <v>0.8023255813953488</v>
+        <v>0.8543307086614174</v>
       </c>
       <c r="N21">
-        <v>0.8449612403100775</v>
+        <v>0.8070866141732284</v>
       </c>
       <c r="O21">
-        <v>0.8266319475621801</v>
+        <v>0.8385826771653544</v>
       </c>
       <c r="P21">
-        <v>0.01697007189736989</v>
+        <v>0.02716250127663046</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>860.3000651359558</v>
+        <v>798.8868759155273</v>
       </c>
       <c r="C22">
-        <v>13.88480093317403</v>
+        <v>29.78529854792875</v>
       </c>
       <c r="D22">
-        <v>8.820368671417237</v>
+        <v>8.753563356399535</v>
       </c>
       <c r="E22">
-        <v>0.7816795717220866</v>
+        <v>0.608789790258222</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1645,28 +1645,28 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>0.8223938223938224</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="K22">
-        <v>0.8185328185328186</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="L22">
-        <v>0.8449612403100775</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M22">
-        <v>0.7984496124031008</v>
+        <v>0.8543307086614174</v>
       </c>
       <c r="N22">
-        <v>0.8488372093023255</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="O22">
-        <v>0.826634940588429</v>
+        <v>0.836220472440945</v>
       </c>
       <c r="P22">
-        <v>0.01847613697606214</v>
+        <v>0.02888808870526636</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>330.4724102020264</v>
+        <v>302.124862909317</v>
       </c>
       <c r="C23">
-        <v>4.676742126373568</v>
+        <v>16.85377239160124</v>
       </c>
       <c r="D23">
-        <v>8.82758936882019</v>
+        <v>7.860667276382446</v>
       </c>
       <c r="E23">
-        <v>0.1974232646442862</v>
+        <v>0.5266030512568041</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1698,28 +1698,28 @@
         <v>37</v>
       </c>
       <c r="J23">
-        <v>0.8146718146718147</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="K23">
-        <v>0.833976833976834</v>
+        <v>0.8937007874015748</v>
       </c>
       <c r="L23">
-        <v>0.8294573643410853</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="M23">
-        <v>0.8062015503875969</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="N23">
-        <v>0.8449612403100775</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="O23">
-        <v>0.8258537607374817</v>
+        <v>0.832283464566929</v>
       </c>
       <c r="P23">
-        <v>0.01382252757532106</v>
+        <v>0.03764734830828952</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>642.8308039188385</v>
+        <v>601.0324204444885</v>
       </c>
       <c r="C24">
-        <v>5.638788368534686</v>
+        <v>19.69288001454429</v>
       </c>
       <c r="D24">
-        <v>9.145147943496704</v>
+        <v>8.284213924407959</v>
       </c>
       <c r="E24">
-        <v>0.1395321045105027</v>
+        <v>0.7032436152542099</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1751,28 +1751,28 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>0.8262548262548263</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="K24">
-        <v>0.8108108108108109</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="L24">
-        <v>0.8294573643410853</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="M24">
-        <v>0.8062015503875969</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="N24">
-        <v>0.8488372093023255</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O24">
-        <v>0.824312352219329</v>
+        <v>0.8314960629921261</v>
       </c>
       <c r="P24">
-        <v>0.01511294632722029</v>
+        <v>0.03221617723697445</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1286.319977092743</v>
+        <v>1218.264235830307</v>
       </c>
       <c r="C25">
-        <v>13.59125504283278</v>
+        <v>36.52688827504485</v>
       </c>
       <c r="D25">
-        <v>8.843956089019775</v>
+        <v>8.890213060379029</v>
       </c>
       <c r="E25">
-        <v>0.5134961000012407</v>
+        <v>0.6377533868035574</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1804,28 +1804,28 @@
         <v>39</v>
       </c>
       <c r="J25">
-        <v>0.8378378378378378</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="K25">
-        <v>0.8146718146718147</v>
+        <v>0.8700787401574803</v>
       </c>
       <c r="L25">
-        <v>0.8488372093023255</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M25">
-        <v>0.7984496124031008</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="N25">
-        <v>0.8488372093023255</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O25">
-        <v>0.829726736703481</v>
+        <v>0.8299212598425199</v>
       </c>
       <c r="P25">
-        <v>0.02000559656393744</v>
+        <v>0.02799431312540343</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>436.2223398685455</v>
+        <v>417.7026714801788</v>
       </c>
       <c r="C26">
-        <v>8.272593048651174</v>
+        <v>16.35667929110893</v>
       </c>
       <c r="D26">
-        <v>8.697878932952881</v>
+        <v>8.310504817962647</v>
       </c>
       <c r="E26">
-        <v>0.651475545676042</v>
+        <v>0.6908044658378356</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1857,28 +1857,28 @@
         <v>40</v>
       </c>
       <c r="J26">
-        <v>0.8301158301158301</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="K26">
-        <v>0.8108108108108109</v>
+        <v>0.8740157480314961</v>
       </c>
       <c r="L26">
-        <v>0.8449612403100775</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="M26">
-        <v>0.8294573643410853</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="N26">
-        <v>0.8488372093023255</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="O26">
-        <v>0.8328364909760259</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="P26">
-        <v>0.01346836005193415</v>
+        <v>0.03059741610665423</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>831.66448264122</v>
+        <v>804.0443397521973</v>
       </c>
       <c r="C27">
-        <v>8.848866937580722</v>
+        <v>28.89006116171405</v>
       </c>
       <c r="D27">
-        <v>7.620184803009034</v>
+        <v>8.1995530128479</v>
       </c>
       <c r="E27">
-        <v>0.9041983055837461</v>
+        <v>0.9850371922599626</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1910,28 +1910,28 @@
         <v>41</v>
       </c>
       <c r="J27">
-        <v>0.8223938223938224</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="K27">
-        <v>0.8146718146718147</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="L27">
-        <v>0.8565891472868217</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="M27">
-        <v>0.8410852713178295</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="N27">
-        <v>0.8488372093023255</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="O27">
-        <v>0.8367154529945229</v>
+        <v>0.8275590551181102</v>
       </c>
       <c r="P27">
-        <v>0.01582420365486679</v>
+        <v>0.03325781430227222</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1121.9412525177</v>
+        <v>1109.326611757278</v>
       </c>
       <c r="C28">
-        <v>173.1966999924169</v>
+        <v>156.7828626395053</v>
       </c>
       <c r="D28">
-        <v>2.53759298324585</v>
+        <v>2.50192437171936</v>
       </c>
       <c r="E28">
-        <v>1.601403521077181</v>
+        <v>1.729019166330414</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -1963,28 +1963,28 @@
         <v>42</v>
       </c>
       <c r="J28">
-        <v>0.8262548262548263</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="K28">
-        <v>0.8146718146718147</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="L28">
-        <v>0.8643410852713178</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="M28">
-        <v>0.8333333333333334</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="N28">
-        <v>0.8565891472868217</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O28">
-        <v>0.8390380413636228</v>
+        <v>0.8291338582677167</v>
       </c>
       <c r="P28">
-        <v>0.01864377985038057</v>
+        <v>0.0329017045917735</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
